--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PProject\shiorim\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593CAF10-691E-4F3B-AB28-FE861E4D4446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A185F320-6CC2-474F-B2E5-90E8237AEDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" firstSheet="31" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="105">
   <si>
     <t>End</t>
   </si>
@@ -350,6 +350,42 @@
   </si>
   <si>
     <t>כולם</t>
+  </si>
+  <si>
+    <t>זמנים</t>
+  </si>
+  <si>
+    <t>08:00-08:10</t>
+  </si>
+  <si>
+    <t>08:10-08:30</t>
+  </si>
+  <si>
+    <t>08:30-9:30</t>
+  </si>
+  <si>
+    <t>9:30-10:30</t>
+  </si>
+  <si>
+    <t>10:30-11:30</t>
+  </si>
+  <si>
+    <t>11:30-12:30</t>
+  </si>
+  <si>
+    <t>12:30-13:15</t>
+  </si>
+  <si>
+    <t>13:15-13:30</t>
+  </si>
+  <si>
+    <t>13:30-14:00</t>
+  </si>
+  <si>
+    <t>14:00-14:15</t>
+  </si>
+  <si>
+    <t>14:15-14:30</t>
   </si>
 </sst>
 </file>
@@ -684,53 +720,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3">
         <v>0.34027777777777773</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
+      <c r="C2" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -747,16 +786,19 @@
       <c r="H2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.34097222222222223</v>
       </c>
       <c r="B3" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -773,490 +815,525 @@
       <c r="H3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.35486111111111113</v>
       </c>
       <c r="B4" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.35486111111111113</v>
       </c>
       <c r="B5" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.35486111111111113</v>
       </c>
       <c r="B6" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.35486111111111113</v>
       </c>
       <c r="B7" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.39652777777777781</v>
       </c>
       <c r="B8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.39652777777777781</v>
       </c>
       <c r="B9" s="3">
         <v>0.4375</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.39652777777777781</v>
       </c>
       <c r="B10" s="3">
         <v>0.4375</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.39652777777777781</v>
       </c>
       <c r="B11" s="3">
         <v>0.4375</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.39652777777777781</v>
       </c>
       <c r="B12" s="3">
         <v>0.4375</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.4381944444444445</v>
       </c>
       <c r="B13" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.4381944444444445</v>
       </c>
       <c r="B14" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.4381944444444445</v>
       </c>
       <c r="B15" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.4381944444444445</v>
       </c>
       <c r="B16" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.4381944444444445</v>
       </c>
       <c r="B17" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.47986111111111113</v>
       </c>
       <c r="B18" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.47986111111111113</v>
       </c>
       <c r="B19" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.47986111111111113</v>
       </c>
       <c r="B20" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0.47986111111111113</v>
       </c>
       <c r="B21" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0.47986111111111113</v>
       </c>
       <c r="B22" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0.52152777777777781</v>
       </c>
       <c r="B23" s="3">
         <v>0.55208333333333337</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>0.52152777777777781</v>
       </c>
       <c r="B24" s="3">
         <v>0.55208333333333337</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0.52152777777777781</v>
       </c>
       <c r="B25" s="3">
         <v>0.55208333333333337</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>0.55277777777777781</v>
       </c>
       <c r="B26" s="3">
         <v>0.5625</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
+      <c r="C26" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>31</v>
@@ -1268,67 +1345,79 @@
         <v>31</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>0.56319444444444444</v>
       </c>
       <c r="B27" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>0.58402777777777781</v>
       </c>
       <c r="B28" s="4">
         <v>0.59375</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="C28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>0.59444444444444444</v>
       </c>
       <c r="B29" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3467,7 +3556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E83C75-D35C-4278-8146-56B5664B1060}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PProject\shiorim\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A185F320-6CC2-474F-B2E5-90E8237AEDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6DDEE6-A8FD-4DF7-A09A-C859F9286D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -355,37 +355,37 @@
     <t>זמנים</t>
   </si>
   <si>
-    <t>08:00-08:10</t>
-  </si>
-  <si>
-    <t>08:10-08:30</t>
-  </si>
-  <si>
-    <t>08:30-9:30</t>
-  </si>
-  <si>
-    <t>9:30-10:30</t>
-  </si>
-  <si>
-    <t>10:30-11:30</t>
-  </si>
-  <si>
-    <t>11:30-12:30</t>
-  </si>
-  <si>
-    <t>12:30-13:15</t>
-  </si>
-  <si>
-    <t>13:15-13:30</t>
-  </si>
-  <si>
-    <t>13:30-14:00</t>
-  </si>
-  <si>
-    <t>14:00-14:15</t>
-  </si>
-  <si>
-    <t>14:15-14:30</t>
+    <t>08:10-08:00</t>
+  </si>
+  <si>
+    <t>08:30-08:10</t>
+  </si>
+  <si>
+    <t>09:30-08:30</t>
+  </si>
+  <si>
+    <t>10:30-09:30</t>
+  </si>
+  <si>
+    <t>11:30-10:30</t>
+  </si>
+  <si>
+    <t>12:30-11:30</t>
+  </si>
+  <si>
+    <t>13:30-12:15</t>
+  </si>
+  <si>
+    <t>13:30-13:15</t>
+  </si>
+  <si>
+    <t>14:00-13:30</t>
+  </si>
+  <si>
+    <t>14:15-14:00</t>
+  </si>
+  <si>
+    <t>14:30-14:15</t>
   </si>
 </sst>
 </file>
@@ -723,11 +723,12 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C29"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -5,61 +5,62 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PProject\shiorim\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PProject\dbs-shiorim\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6DDEE6-A8FD-4DF7-A09A-C859F9286D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="אנגלית 1" sheetId="21" r:id="rId2"/>
-    <sheet name="אנגלית 2" sheetId="22" r:id="rId3"/>
-    <sheet name="אנגלית 3" sheetId="23" r:id="rId4"/>
-    <sheet name="חשבון 1" sheetId="7" r:id="rId5"/>
-    <sheet name="חשבון 2" sheetId="13" r:id="rId6"/>
-    <sheet name="חשבון 3_x0009_" sheetId="2" r:id="rId7"/>
-    <sheet name="חשבון 4" sheetId="14" r:id="rId8"/>
-    <sheet name="חשבון 5" sheetId="15" r:id="rId9"/>
-    <sheet name="חשבון 6" sheetId="16" r:id="rId10"/>
-    <sheet name="חשבון 7" sheetId="9" r:id="rId11"/>
-    <sheet name="עברית 1_x0009_" sheetId="3" r:id="rId12"/>
-    <sheet name="עברית 2" sheetId="11" r:id="rId13"/>
-    <sheet name="עברית 3" sheetId="12" r:id="rId14"/>
-    <sheet name="עברית 4" sheetId="17" r:id="rId15"/>
-    <sheet name="עברית 5" sheetId="6" r:id="rId16"/>
-    <sheet name="עברית 6" sheetId="18" r:id="rId17"/>
-    <sheet name="עברית 7" sheetId="19" r:id="rId18"/>
-    <sheet name="עברית 8" sheetId="5" r:id="rId19"/>
-    <sheet name="מדעים 1" sheetId="28" r:id="rId20"/>
-    <sheet name="מדעים 2" sheetId="29" r:id="rId21"/>
-    <sheet name="נגרות 1" sheetId="48" r:id="rId22"/>
-    <sheet name="נגרות 2" sheetId="49" r:id="rId23"/>
-    <sheet name="אורגמי" sheetId="50" r:id="rId24"/>
-    <sheet name="אקרובטיקה מתחילים" sheetId="20" r:id="rId25"/>
-    <sheet name="אקרובטיקה מתקדמים" sheetId="8" r:id="rId26"/>
-    <sheet name="אמנות תולדות ויצירה" sheetId="47" r:id="rId27"/>
-    <sheet name="אמנות מלאכת יד" sheetId="4" r:id="rId28"/>
-    <sheet name="מדעי הספורט" sheetId="25" r:id="rId29"/>
-    <sheet name="מיתולוגיה יוונית" sheetId="27" r:id="rId30"/>
-    <sheet name="יצירה מסיפור" sheetId="10" r:id="rId31"/>
-    <sheet name="יוגה" sheetId="31" r:id="rId32"/>
-    <sheet name="גאוגרפיה" sheetId="32" r:id="rId33"/>
-    <sheet name="גאוגרפיה 2" sheetId="33" r:id="rId34"/>
-    <sheet name="יזמות" sheetId="37" r:id="rId35"/>
-    <sheet name="כדורסל" sheetId="35" r:id="rId36"/>
-    <sheet name="חינוך גופני" sheetId="38" r:id="rId37"/>
-    <sheet name="קיימות" sheetId="40" r:id="rId38"/>
-    <sheet name="תרפיה במוזיקה" sheetId="51" r:id="rId39"/>
-    <sheet name="משחקים של פעם" sheetId="42" r:id="rId40"/>
-    <sheet name="משחקי כדור" sheetId="44" r:id="rId41"/>
-    <sheet name="פעילות ספורטיבית" sheetId="43" r:id="rId42"/>
-    <sheet name="נינג'ה" sheetId="45" r:id="rId43"/>
-    <sheet name="יצירה מפלסטלינה" sheetId="46" r:id="rId44"/>
-    <sheet name="פרלמנט" sheetId="52" r:id="rId45"/>
-    <sheet name="זמן מעורבות" sheetId="53" r:id="rId46"/>
-    <sheet name="נקיון בית הספר" sheetId="54" r:id="rId47"/>
+    <sheet name="News" sheetId="55" r:id="rId2"/>
+    <sheet name="אנגלית 1" sheetId="21" r:id="rId3"/>
+    <sheet name="אנגלית 2" sheetId="22" r:id="rId4"/>
+    <sheet name="אנגלית 3" sheetId="23" r:id="rId5"/>
+    <sheet name="חשבון 1" sheetId="7" r:id="rId6"/>
+    <sheet name="חשבון 2" sheetId="13" r:id="rId7"/>
+    <sheet name="חשבון 3_x0009_" sheetId="2" r:id="rId8"/>
+    <sheet name="חשבון 4" sheetId="14" r:id="rId9"/>
+    <sheet name="חשבון 5" sheetId="15" r:id="rId10"/>
+    <sheet name="חשבון 6" sheetId="16" r:id="rId11"/>
+    <sheet name="חשבון 7" sheetId="9" r:id="rId12"/>
+    <sheet name="עברית 1_x0009_" sheetId="3" r:id="rId13"/>
+    <sheet name="עברית 2" sheetId="11" r:id="rId14"/>
+    <sheet name="עברית 3" sheetId="12" r:id="rId15"/>
+    <sheet name="עברית 4" sheetId="17" r:id="rId16"/>
+    <sheet name="עברית 5" sheetId="6" r:id="rId17"/>
+    <sheet name="עברית 6" sheetId="18" r:id="rId18"/>
+    <sheet name="עברית 7" sheetId="19" r:id="rId19"/>
+    <sheet name="עברית 8" sheetId="5" r:id="rId20"/>
+    <sheet name="מדעים 1" sheetId="28" r:id="rId21"/>
+    <sheet name="מדעים 2" sheetId="29" r:id="rId22"/>
+    <sheet name="נגרות 1" sheetId="48" r:id="rId23"/>
+    <sheet name="נגרות 2" sheetId="49" r:id="rId24"/>
+    <sheet name="אורגמי" sheetId="50" r:id="rId25"/>
+    <sheet name="אקרובטיקה מתחילים" sheetId="20" r:id="rId26"/>
+    <sheet name="אקרובטיקה מתקדמים" sheetId="8" r:id="rId27"/>
+    <sheet name="אמנות תולדות ויצירה" sheetId="47" r:id="rId28"/>
+    <sheet name="אמנות מלאכת יד" sheetId="4" r:id="rId29"/>
+    <sheet name="מדעי הספורט" sheetId="25" r:id="rId30"/>
+    <sheet name="מיתולוגיה יוונית" sheetId="27" r:id="rId31"/>
+    <sheet name="יצירה מסיפור" sheetId="10" r:id="rId32"/>
+    <sheet name="יוגה" sheetId="31" r:id="rId33"/>
+    <sheet name="גאוגרפיה" sheetId="32" r:id="rId34"/>
+    <sheet name="גאוגרפיה 2" sheetId="33" r:id="rId35"/>
+    <sheet name="יזמות" sheetId="37" r:id="rId36"/>
+    <sheet name="כדורסל" sheetId="35" r:id="rId37"/>
+    <sheet name="חינוך גופני" sheetId="38" r:id="rId38"/>
+    <sheet name="קיימות" sheetId="40" r:id="rId39"/>
+    <sheet name="תרפיה במוזיקה" sheetId="51" r:id="rId40"/>
+    <sheet name="משחקים של פעם" sheetId="42" r:id="rId41"/>
+    <sheet name="משחקי כדור" sheetId="44" r:id="rId42"/>
+    <sheet name="פעילות ספורטיבית" sheetId="43" r:id="rId43"/>
+    <sheet name="נינג'ה" sheetId="45" r:id="rId44"/>
+    <sheet name="יצירה מפלסטלינה" sheetId="46" r:id="rId45"/>
+    <sheet name="פרלמנט" sheetId="52" r:id="rId46"/>
+    <sheet name="זמן מעורבות" sheetId="53" r:id="rId47"/>
+    <sheet name="נקיון בית הספר" sheetId="54" r:id="rId48"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -392,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +404,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -428,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -440,6 +447,16 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,6 +1444,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D271A6D-078C-40E9-9A96-AF302CF022A1}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7ADCE2-031B-4A41-B633-6983BDF29D0B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1479,7 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAEB3E2-304E-4689-B49B-0C4B937B121E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1532,7 +1602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E35109-C95D-4E53-87CC-A2539595933D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1585,7 +1655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B118CB-E3A3-4178-BA99-A7F184B80AF1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1639,7 +1709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EF8A86-754A-4A81-8121-90B2BDECA55F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1693,7 +1763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DE8EEF-C57B-467C-B162-55F45896E1A6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1750,7 +1820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9B5DA2-0F91-4908-AA7F-07B954957320}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1803,7 +1873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FACDE2-1DA7-4432-920B-73E273782C0E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1857,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9193C7EB-2839-40FC-B2FF-CE816E128DCA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1911,7 +1981,216 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7AE309-BF11-4317-B7B6-BEBE2EF55A98}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="23.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B3D0D5-B39A-48D4-BC31-7D4E14164963}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1964,7 +2243,483 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A3111F-3D70-4EFF-AE5C-36526DE94197}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FBD00F-9E10-4442-9B56-0E97C259F8B4}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C1374A-83B4-4C00-A257-4E65575BDD0B}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F0662E-F8BB-47E8-B778-0AE5A7F33F93}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25E83AC-92A3-4687-B6A6-2FA482B329F3}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207BB758-F2D3-452F-ADB1-17E9E25C5604}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C491A23-EB89-41D8-8352-873E4BBB49E7}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C091D7-BD7E-451B-A290-ACB6DFBE4EB3}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A982DD-A4F8-4A01-B79F-BF95836FBBE2}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744C230C-EB28-45C4-BB38-B3D936DB1FE9}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -2017,8 +2772,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A3111F-3D70-4EFF-AE5C-36526DE94197}">
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD6269-BE13-46D5-9855-FBBEAB750487}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -2032,99 +2787,152 @@
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FBD00F-9E10-4442-9B56-0E97C259F8B4}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C1374A-83B4-4C00-A257-4E65575BDD0B}">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D2C78C-0645-422C-AB61-7D99148C12B3}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FC2F02-4169-443C-BF7F-82E749A59DAE}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1039B928-C721-461F-BE5D-405641899748}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -2138,7 +2946,749 @@
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF3648E-9751-4929-80E5-F3952A493E4C}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC963CDE-6C92-4FCF-AAEA-2C44715EC104}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BBEBDA-68CD-4D89-9002-5B8492684291}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D436D0-4170-4748-A4E4-81BE4B5F1136}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2EB3E6-A8BD-49CA-9658-79134BD48280}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B86DA2-F417-4E2D-874B-015BD6AB22C9}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B323C1B3-34FE-4EBF-972C-65EE6ACDE285}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162E9A9F-BA12-4E4A-9AC5-CBBA7338E46E}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2361D6A5-F6D5-4D02-B6CD-6B5D9E191A75}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D60DE4-DBDA-4875-B509-EE3115FFDEB5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F2BB1A-4408-4C63-B21E-1133467A629A}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DE782F-BDC0-4B29-A62D-9C64FE5D7D09}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD26E992-A47C-490A-89F3-FB1FC3123C15}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E220B0-3E3E-428A-A69D-8B5D8B6B9D60}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,272 +3726,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F0662E-F8BB-47E8-B778-0AE5A7F33F93}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25E83AC-92A3-4687-B6A6-2FA482B329F3}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207BB758-F2D3-452F-ADB1-17E9E25C5604}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C491A23-EB89-41D8-8352-873E4BBB49E7}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C091D7-BD7E-451B-A290-ACB6DFBE4EB3}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A982DD-A4F8-4A01-B79F-BF95836FBBE2}">
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DF2792-DB42-4747-807E-B4382963B1D5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E83C75-D35C-4278-8146-56B5664B1060}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388287E6-A828-4E8C-97A7-F0304859159F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -2455,112 +3847,6 @@
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD6269-BE13-46D5-9855-FBBEAB750487}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B323C1B3-34FE-4EBF-972C-65EE6ACDE285}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2599,340 +3885,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D2C78C-0645-422C-AB61-7D99148C12B3}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FC2F02-4169-443C-BF7F-82E749A59DAE}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1039B928-C721-461F-BE5D-405641899748}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF3648E-9751-4929-80E5-F3952A493E4C}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC963CDE-6C92-4FCF-AAEA-2C44715EC104}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BBEBDA-68CD-4D89-9002-5B8492684291}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D436D0-4170-4748-A4E4-81BE4B5F1136}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC9BCA9-92D3-4023-8A8D-0DCF18297F48}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2967,700 +3935,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2EB3E6-A8BD-49CA-9658-79134BD48280}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B86DA2-F417-4E2D-874B-015BD6AB22C9}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162E9A9F-BA12-4E4A-9AC5-CBBA7338E46E}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388287E6-A828-4E8C-97A7-F0304859159F}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2361D6A5-F6D5-4D02-B6CD-6B5D9E191A75}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D60DE4-DBDA-4875-B509-EE3115FFDEB5}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F2BB1A-4408-4C63-B21E-1133467A629A}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DE782F-BDC0-4B29-A62D-9C64FE5D7D09}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD26E992-A47C-490A-89F3-FB1FC3123C15}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E220B0-3E3E-428A-A69D-8B5D8B6B9D60}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DF2792-DB42-4747-807E-B4382963B1D5}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E83C75-D35C-4278-8146-56B5664B1060}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC9BCA9-92D3-4023-8A8D-0DCF18297F48}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AFCEA0-2C07-4398-A74E-BEFBE89DB1AA}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3716,7 +3995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF7B311-84CD-4F0E-BA86-9D05A7D46FEE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3769,7 +4048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C34956-4AF1-42CA-A8C6-DAA7C1FE6CF8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3820,57 +4099,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D271A6D-078C-40E9-9A96-AF302CF022A1}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -162,7 +162,7 @@
     <t>מעיין</t>
   </si>
   <si>
-    <t>ghdfg</t>
+    <t>בדיקה 1</t>
   </si>
   <si>
     <t>Start</t>

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -162,7 +162,7 @@
     <t>מעיין</t>
   </si>
   <si>
-    <t>בדיקה 1</t>
+    <t/>
   </si>
   <si>
     <t>Start</t>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -444,6 +444,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -774,8 +777,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="23.290714285714284" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="18.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -786,10 +789,10 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -815,10 +818,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1.3328703703703704</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>1.3398148148148148</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -844,10 +847,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>1.3405092592592593</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>1.3537037037037036</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -873,10 +876,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>1.3543981481481482</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>1.3953703703703704</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -900,13 +903,13 @@
       <c r="I4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>1.3543981481481482</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>1.3953703703703704</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
@@ -923,13 +926,13 @@
       <c r="I5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>1.3543981481481482</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>1.3953703703703704</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
@@ -946,13 +949,13 @@
       <c r="I6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>1.3543981481481482</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>1.3953703703703704</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
@@ -965,10 +968,10 @@
       <c r="I7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>1.3960648148148147</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>1.4370370370370371</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -992,13 +995,13 @@
       <c r="I8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>1.3960648148148147</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>1.4370370370370371</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1017,13 +1020,13 @@
       <c r="I9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>1.3960648148148147</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>1.4370370370370371</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
@@ -1042,13 +1045,13 @@
       <c r="I10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>1.3960648148148147</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>1.4370370370370371</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
@@ -1065,13 +1068,13 @@
       <c r="I11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>1.3960648148148147</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>1.4370370370370371</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1082,10 +1085,10 @@
       <c r="I12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>1.4377314814814814</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>1.4787037037037036</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1109,13 +1112,13 @@
       <c r="I13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>1.4377314814814814</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>1.4787037037037036</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="1" t="s">
         <v>76</v>
       </c>
@@ -1134,13 +1137,13 @@
       <c r="I14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>1.4377314814814814</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>1.4787037037037036</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="1" t="s">
         <v>79</v>
       </c>
@@ -1159,13 +1162,13 @@
       <c r="I15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>1.4377314814814814</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>1.4787037037037036</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="1" t="s">
         <v>82</v>
       </c>
@@ -1180,13 +1183,13 @@
       <c r="I16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>1.4377314814814814</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>1.4787037037037036</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1197,10 +1200,10 @@
       <c r="I17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>1.4793981481481482</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>1.5203703703703704</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1224,13 +1227,13 @@
       <c r="I18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>1.4793981481481482</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>1.5203703703703704</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="1" t="s">
         <v>63</v>
       </c>
@@ -1249,13 +1252,13 @@
       <c r="I19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>1.4793981481481482</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>1.5203703703703704</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="1" t="s">
         <v>59</v>
       </c>
@@ -1274,13 +1277,13 @@
       <c r="I20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>1.4793981481481482</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>1.5203703703703704</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="1" t="s">
         <v>89</v>
       </c>
@@ -1295,13 +1298,13 @@
       <c r="I21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>1.4793981481481482</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>1.5203703703703704</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1312,10 +1315,10 @@
       <c r="I22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>1.5210648148148147</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>1.5516203703703704</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1339,13 +1342,13 @@
       <c r="I23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>1.5210648148148147</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>1.5516203703703704</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="1" t="s">
         <v>94</v>
       </c>
@@ -1360,13 +1363,13 @@
       <c r="I24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>1.5210648148148147</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>1.5516203703703704</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="1" t="s">
         <v>96</v>
       </c>
@@ -1379,10 +1382,10 @@
       <c r="I25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>1.5523148148148147</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>1.5620370370370371</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1406,13 +1409,13 @@
       <c r="I26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>1.5627314814814814</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>1.5828703703703704</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="1"/>
@@ -1429,13 +1432,13 @@
       <c r="I27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>1.5835648148148147</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <v>1.5932870370370371</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="1"/>
@@ -1452,13 +1455,13 @@
       <c r="I28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>1.5939814814814814</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
         <v>1.6037037037037036</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="1"/>
@@ -2071,215 +2074,215 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PProject\dbs-shiorim\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdocs-my.sharepoint.com/personal/elade_amdocs_com/Documents/Backup Folders/Documents/GitHub/dbs-shiorim/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{923ABC63-6AD3-41F4-9687-051A1A463A31}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -739,13 +739,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1985,7 +1985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7AE309-BF11-4317-B7B6-BEBE2EF55A98}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdocs-my.sharepoint.com/personal/elade_amdocs_com/Documents/Backup Folders/Documents/GitHub/dbs-shiorim/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F952874A-2F6E-4E36-B6F5-1728C96BEA6D}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49F9699-2AA3-43A8-8CC9-960BB269AFEC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" firstSheet="30" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="56" r:id="rId2"/>
+    <sheet name="Birthday" sheetId="56" r:id="rId2"/>
     <sheet name="News" sheetId="55" r:id="rId3"/>
     <sheet name="אנגלית 1" sheetId="21" r:id="rId4"/>
     <sheet name="אנגלית 2" sheetId="22" r:id="rId5"/>
@@ -41,7 +41,7 @@
     <sheet name="אורגמי" sheetId="50" r:id="rId26"/>
     <sheet name="אקרובטיקה מתחילים" sheetId="20" r:id="rId27"/>
     <sheet name="אקרובטיקה מתקדמים" sheetId="8" r:id="rId28"/>
-    <sheet name="אמנות תולדות ויצירה" sheetId="47" r:id="rId29"/>
+    <sheet name="אומנות תולדות ויצירה" sheetId="47" r:id="rId29"/>
     <sheet name="אמנות מלאכת יד 1" sheetId="4" r:id="rId30"/>
     <sheet name="אמנות מלאכת יד 2" sheetId="57" r:id="rId31"/>
     <sheet name="מדעי הספורט בוגרים" sheetId="25" r:id="rId32"/>
@@ -56,16 +56,17 @@
     <sheet name="כדורסל" sheetId="35" r:id="rId41"/>
     <sheet name="חינוך גופני" sheetId="38" r:id="rId42"/>
     <sheet name="קיימות" sheetId="40" r:id="rId43"/>
-    <sheet name="תרפיה במוזיקה" sheetId="51" r:id="rId44"/>
-    <sheet name="משחקים של פעם" sheetId="42" r:id="rId45"/>
-    <sheet name="משחקי כדור" sheetId="44" r:id="rId46"/>
-    <sheet name="פעילות ספורטיבית" sheetId="43" r:id="rId47"/>
-    <sheet name="נינג'ה" sheetId="45" r:id="rId48"/>
-    <sheet name="יצירה מפלסטלינה" sheetId="46" r:id="rId49"/>
-    <sheet name="שיעור חונכים" sheetId="60" r:id="rId50"/>
-    <sheet name="פרלמנט" sheetId="52" r:id="rId51"/>
-    <sheet name="זמן מעורבות" sheetId="53" r:id="rId52"/>
-    <sheet name="נקיון בית הספר" sheetId="54" r:id="rId53"/>
+    <sheet name="תרפיה במוזיקה 1" sheetId="51" r:id="rId44"/>
+    <sheet name="תרפיה במוזיקה 2" sheetId="61" r:id="rId45"/>
+    <sheet name="משחקים של פעם" sheetId="42" r:id="rId46"/>
+    <sheet name="משחקי כדור" sheetId="44" r:id="rId47"/>
+    <sheet name="פעילות ספורטיבית" sheetId="43" r:id="rId48"/>
+    <sheet name="נינג'ה" sheetId="45" r:id="rId49"/>
+    <sheet name="יצירה מפלסטלינה" sheetId="46" r:id="rId50"/>
+    <sheet name="שיעור חונכים" sheetId="60" r:id="rId51"/>
+    <sheet name="פרלמנט" sheetId="52" r:id="rId52"/>
+    <sheet name="זמן מעורבות" sheetId="53" r:id="rId53"/>
+    <sheet name="נקיון בית הספר" sheetId="54" r:id="rId54"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="129">
   <si>
     <t>End</t>
   </si>
@@ -355,9 +356,6 @@
     <t xml:space="preserve">אוכל + ניקיון </t>
   </si>
   <si>
-    <t>8:008:10</t>
-  </si>
-  <si>
     <t xml:space="preserve">מדעים קבוצה 1 </t>
   </si>
   <si>
@@ -373,9 +371,6 @@
     <t xml:space="preserve">נגרות קבוצה 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">תרפיה במוזיקה ב </t>
-  </si>
-  <si>
     <t xml:space="preserve">חשבון 7 </t>
   </si>
   <si>
@@ -437,13 +432,46 @@
   </si>
   <si>
     <t>אומנות תולדות ויצירה</t>
+  </si>
+  <si>
+    <t>אלעד ארץ קדושה</t>
+  </si>
+  <si>
+    <t>24.2.1987</t>
+  </si>
+  <si>
+    <t>אלון ארץ קדושה</t>
+  </si>
+  <si>
+    <t>5.4.2015</t>
+  </si>
+  <si>
+    <t>ארבל ארץ קדושה</t>
+  </si>
+  <si>
+    <t>21.2.2018</t>
+  </si>
+  <si>
+    <t>נוי ארץ קדושה</t>
+  </si>
+  <si>
+    <t>16.5.1987</t>
+  </si>
+  <si>
+    <t>סמי הכבאי</t>
+  </si>
+  <si>
+    <t>11.10.1987</t>
+  </si>
+  <si>
+    <t>תרפיה במוזיקה 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +495,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,7 +527,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -522,6 +551,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,6 +569,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -806,18 +840,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -875,7 +912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.34097222222222223</v>
       </c>
@@ -904,7 +941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.35486111111111113</v>
       </c>
@@ -921,7 +958,7 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>45</v>
@@ -931,7 +968,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.35486111111111113</v>
       </c>
@@ -949,14 +986,14 @@
         <v>30</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.35486111111111113</v>
       </c>
@@ -969,11 +1006,11 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.35486111111111113</v>
       </c>
@@ -982,7 +1019,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" t="s">
@@ -990,7 +1027,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.35486111111111113</v>
       </c>
@@ -1003,7 +1040,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.39652777777777781</v>
       </c>
@@ -1023,14 +1060,14 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.39652777777777781</v>
       </c>
@@ -1051,11 +1088,11 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.39652777777777781</v>
       </c>
@@ -1073,14 +1110,14 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.39652777777777781</v>
       </c>
@@ -1089,17 +1126,17 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
         <v>96</v>
       </c>
-      <c r="H12" t="s">
-        <v>97</v>
-      </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.39652777777777781</v>
       </c>
@@ -1111,7 +1148,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.4381944444444445</v>
       </c>
@@ -1125,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1138,7 +1175,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.4381944444444445</v>
       </c>
@@ -1147,7 +1184,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -1156,14 +1193,14 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.4381944444444445</v>
       </c>
@@ -1181,14 +1218,14 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.4381944444444445</v>
       </c>
@@ -1200,11 +1237,11 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.4381944444444445</v>
       </c>
@@ -1212,11 +1249,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.47986111111111113</v>
       </c>
@@ -1233,17 +1270,17 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.47986111111111113</v>
       </c>
@@ -1255,20 +1292,20 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0.47986111111111113</v>
       </c>
@@ -1286,14 +1323,14 @@
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0.47986111111111113</v>
       </c>
@@ -1311,14 +1348,14 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0.52152777777777781</v>
       </c>
@@ -1332,20 +1369,20 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="11" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>0.52152777777777781</v>
       </c>
@@ -1357,16 +1394,16 @@
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0.52152777777777781</v>
       </c>
@@ -1381,13 +1418,13 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+        <v>109</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>0.55277777777777781</v>
       </c>
@@ -1402,13 +1439,13 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>0.56319444444444444</v>
       </c>
@@ -1431,7 +1468,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>0.58402777777777781</v>
       </c>
@@ -1453,7 +1490,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>0.59444444444444444</v>
       </c>
@@ -1493,9 +1530,9 @@
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1503,7 +1540,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1511,25 +1548,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -1546,9 +1583,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +1593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1564,25 +1601,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -1599,9 +1636,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1609,7 +1646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1617,25 +1654,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -1652,9 +1689,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1662,7 +1699,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1670,25 +1707,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -1705,9 +1742,9 @@
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1715,7 +1752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1723,25 +1760,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -1758,9 +1795,9 @@
       <selection activeCell="B3" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1768,7 +1805,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1776,25 +1813,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -1812,9 +1849,9 @@
       <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1822,7 +1859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1830,25 +1867,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -1866,12 +1903,12 @@
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1879,7 +1916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1887,25 +1924,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -1923,9 +1960,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1933,7 +1970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1941,25 +1978,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -1976,9 +2013,9 @@
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1986,7 +2023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1994,25 +2031,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -2024,417 +2061,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A8E574-6AA2-47C3-8736-673C6A531D8C}">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>0.40868055555555555</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9">
-        <v>0.54826388888888888</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9">
-        <v>2.4656249999999997</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9">
-        <v>2.5079861111111112</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="F17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="9">
-        <v>2.5503472222222223</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9">
-        <v>2.5925347222222221</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A21"/>
-  </mergeCells>
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2448,9 +2126,9 @@
       <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2458,7 +2136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2466,25 +2144,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -2502,9 +2180,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2512,7 +2190,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2520,25 +2198,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -2555,9 +2233,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2565,7 +2243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2573,25 +2251,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -2608,9 +2286,9 @@
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2618,7 +2296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2626,25 +2304,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -2661,9 +2339,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2671,7 +2349,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2679,25 +2357,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -2714,9 +2392,9 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2724,7 +2402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2732,25 +2410,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -2767,9 +2445,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2777,7 +2455,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2785,25 +2463,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -2820,9 +2498,9 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2830,7 +2508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2838,25 +2516,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -2873,9 +2551,9 @@
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2883,7 +2561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2891,25 +2569,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
@@ -2922,12 +2600,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2935,7 +2613,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2943,25 +2621,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -2976,7 +2654,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="7"/>
     <col min="3" max="3" width="23.28515625" style="7" customWidth="1"/>
@@ -2985,7 +2663,7 @@
     <col min="10" max="14" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2996,7 +2674,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3007,7 +2685,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3018,7 +2696,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3029,7 +2707,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3040,7 +2718,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3051,7 +2729,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3062,7 +2740,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3073,7 +2751,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3084,7 +2762,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3095,7 +2773,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3106,7 +2784,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3117,7 +2795,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3128,7 +2806,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3139,7 +2817,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3150,7 +2828,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -3158,14 +2836,14 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="4:8">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -3187,9 +2865,9 @@
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3197,7 +2875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3205,25 +2883,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3240,9 +2918,9 @@
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3250,7 +2928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3258,25 +2936,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3293,9 +2971,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3303,7 +2981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3311,25 +2989,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3346,9 +3024,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3356,7 +3034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3364,25 +3042,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3399,43 +3077,43 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3452,9 +3130,9 @@
       <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3462,7 +3140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3470,25 +3148,25 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3505,9 +3183,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3515,7 +3193,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3523,25 +3201,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3558,9 +3236,9 @@
       <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3568,7 +3246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3576,25 +3254,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3611,9 +3289,9 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3621,7 +3299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3629,25 +3307,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3664,9 +3342,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3674,7 +3352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3682,25 +3360,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3717,9 +3395,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3727,7 +3405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3735,25 +3413,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3770,9 +3448,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3780,7 +3458,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3788,25 +3466,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3823,9 +3501,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3833,7 +3511,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3841,25 +3519,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3876,9 +3554,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3886,7 +3564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3894,25 +3572,25 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3929,9 +3607,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3939,7 +3617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3947,25 +3625,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -3982,9 +3660,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3992,7 +3670,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4000,25 +3678,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -4028,6 +3706,62 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811B4204-AADD-4BDF-AAE1-A5BBD7E1294B}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2361D6A5-F6D5-4D02-B6CD-6B5D9E191A75}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4035,9 +3769,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4045,7 +3779,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4053,34 +3787,34 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D60DE4-DBDA-4875-B509-EE3115FFDEB5}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4088,9 +3822,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4098,7 +3832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4106,34 +3840,34 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F2BB1A-4408-4C63-B21E-1133467A629A}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4141,9 +3875,9 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4151,7 +3885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4159,34 +3893,34 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DE782F-BDC0-4B29-A62D-9C64FE5D7D09}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4194,9 +3928,9 @@
       <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4204,7 +3938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4212,78 +3946,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD26E992-A47C-490A-89F3-FB1FC3123C15}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -4300,9 +3981,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4310,7 +3991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4318,25 +3999,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -4346,6 +4027,59 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD26E992-A47C-490A-89F3-FB1FC3123C15}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06215412-D8B6-4AD2-8419-31DA50289196}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4353,9 +4087,9 @@
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4363,7 +4097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4371,34 +4105,34 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E220B0-3E3E-428A-A69D-8B5D8B6B9D60}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4406,9 +4140,9 @@
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4416,7 +4150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4424,34 +4158,34 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DF2792-DB42-4747-807E-B4382963B1D5}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4459,9 +4193,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4469,7 +4203,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4477,34 +4211,34 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E83C75-D35C-4278-8146-56B5664B1060}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4512,9 +4246,9 @@
       <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4522,7 +4256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4530,25 +4264,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -4565,9 +4299,9 @@
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4575,7 +4309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4583,25 +4317,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -4618,9 +4352,9 @@
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4628,7 +4362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4636,25 +4370,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
@@ -4672,9 +4406,9 @@
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4682,7 +4416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4690,28 +4424,28 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
   </sheetData>
@@ -4728,9 +4462,9 @@
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4738,7 +4472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4746,25 +4480,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdocs-my.sharepoint.com/personal/elade_amdocs_com/Documents/Backup Folders/Documents/GitHub/dbs-shiorim/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49F9699-2AA3-43A8-8CC9-960BB269AFEC}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1108862-14B2-4850-ACEF-776D9298D371}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" firstSheet="30" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -356,9 +356,6 @@
     <t xml:space="preserve">אוכל + ניקיון </t>
   </si>
   <si>
-    <t xml:space="preserve">מדעים קבוצה 1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">חשבון 5 </t>
   </si>
   <si>
@@ -368,24 +365,12 @@
     <t xml:space="preserve">עברית 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">נגרות קבוצה 1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">חשבון 7 </t>
   </si>
   <si>
-    <t>מדעים קבוצה 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נגרות קבוצה 2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">חשבון 6 </t>
   </si>
   <si>
-    <t xml:space="preserve">מדעים קבוצה 2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">אנגלית 2 </t>
   </si>
   <si>
@@ -465,6 +450,21 @@
   </si>
   <si>
     <t>תרפיה במוזיקה 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מדעים 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">נגרות 1 </t>
+  </si>
+  <si>
+    <t>מדעים 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נגרות 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מדעים 2 </t>
   </si>
 </sst>
 </file>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>45</v>
@@ -986,7 +986,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" t="s">
@@ -1060,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -1088,7 +1088,7 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1110,10 +1110,10 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1126,13 +1126,13 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -1193,10 +1193,10 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1218,10 +1218,10 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1237,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1249,7 +1249,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1270,10 +1270,10 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
@@ -1292,13 +1292,13 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1348,7 +1348,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1369,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
         <v>35</v>
@@ -1394,7 +1394,7 @@
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -1418,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1439,7 +1439,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2074,42 +2074,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3084,15 +3084,15 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +3709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811B4204-AADD-4BDF-AAE1-A5BBD7E1294B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdocs-my.sharepoint.com/personal/elade_amdocs_com/Documents/Backup Folders/Documents/GitHub/dbs-shiorim/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1108862-14B2-4850-ACEF-776D9298D371}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1763D9E8-5711-4DEC-A4C9-4A7B23607A16}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <sheet name="מדעים 2" sheetId="29" r:id="rId23"/>
     <sheet name="נגרות 1" sheetId="48" r:id="rId24"/>
     <sheet name="נגרות 2" sheetId="49" r:id="rId25"/>
-    <sheet name="אורגמי" sheetId="50" r:id="rId26"/>
+    <sheet name="אוריגמי" sheetId="50" r:id="rId26"/>
     <sheet name="אקרובטיקה מתחילים" sheetId="20" r:id="rId27"/>
     <sheet name="אקרובטיקה מתקדמים" sheetId="8" r:id="rId28"/>
     <sheet name="אומנות תולדות ויצירה" sheetId="47" r:id="rId29"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="127">
   <si>
     <t>End</t>
   </si>
@@ -377,9 +377,6 @@
     <t xml:space="preserve">אנגלית 3 </t>
   </si>
   <si>
-    <t xml:space="preserve">חינוך גופני אב  </t>
-  </si>
-  <si>
     <t>אומנות מלאכת יד 1</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
   </si>
   <si>
     <t>יוגה 2</t>
-  </si>
-  <si>
-    <t>חשבון  3</t>
   </si>
   <si>
     <t>אומנות תולדות ויצירה</t>
@@ -569,10 +563,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -840,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +948,7 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>45</v>
@@ -986,7 +976,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -1006,7 +996,7 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1019,7 +1009,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" t="s">
@@ -1088,7 +1078,7 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1110,7 +1100,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
         <v>93</v>
@@ -1126,13 +1116,13 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
         <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1184,7 +1174,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -1193,7 +1183,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H15" t="s">
         <v>95</v>
@@ -1218,10 +1208,10 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1237,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1249,7 +1239,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1298,7 +1288,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1323,10 +1313,10 @@
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1348,7 +1338,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1394,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -1418,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2074,42 +2064,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>117</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2441,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25E83AC-92A3-4687-B6A6-2FA482B329F3}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,15 +3074,15 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdocs-my.sharepoint.com/personal/elade_amdocs_com/Documents/Backup Folders/Documents/GitHub/dbs-shiorim/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1763D9E8-5711-4DEC-A4C9-4A7B23607A16}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D709BB-B339-4E8B-A664-C9CB31B657F4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="125">
   <si>
     <t>End</t>
   </si>
@@ -435,12 +435,6 @@
   </si>
   <si>
     <t>16.5.1987</t>
-  </si>
-  <si>
-    <t>סמי הכבאי</t>
-  </si>
-  <si>
-    <t>11.10.1987</t>
   </si>
   <si>
     <t>תרפיה במוזיקה 2</t>
@@ -563,6 +557,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -996,7 +994,7 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1078,7 +1076,7 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1122,7 +1120,7 @@
         <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1183,7 +1181,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H15" t="s">
         <v>95</v>
@@ -1211,7 +1209,7 @@
         <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1239,7 +1237,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1316,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -2051,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A8E574-6AA2-47C3-8736-673C6A531D8C}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,14 +2092,6 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2431,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25E83AC-92A3-4687-B6A6-2FA482B329F3}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdocs-my.sharepoint.com/personal/elade_amdocs_com/Documents/Backup Folders/Documents/GitHub/dbs-shiorim/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{92D5C42B-47A5-472C-B4B2-82F2153A56E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D709BB-B339-4E8B-A664-C9CB31B657F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{442CA251-86F5-4A3D-9464-13A644F2BA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="126">
   <si>
     <t>End</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t xml:space="preserve">מדעים 2 </t>
+  </si>
+  <si>
+    <t>נקיון בית הספר</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,10 +1361,10 @@
       <c r="F23" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="2"/>
@@ -1387,8 +1386,8 @@
       <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1408,16 +1407,16 @@
       <c r="F25" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>0.55277777777777781</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="B26" s="3">
-        <v>0.5625</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" t="s">
@@ -1429,82 +1428,103 @@
       <c r="F26" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>0.56319444444444444</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="2"/>
+    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>0.58402777777777781</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="B28" s="4">
-        <v>0.59375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>0.59444444444444444</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="B29" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-  </mergeCells>
+      <c r="H30" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -2051,7 +2071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A8E574-6AA2-47C3-8736-673C6A531D8C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PProject\dbs-shiorim\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0B04D8-6729-4EA9-962A-F1FD8975CC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24282F29-DAAC-416D-831F-0FF5069DCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <sheet name="News" sheetId="55" r:id="rId4"/>
     <sheet name="Birthday" sheetId="56" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="210">
   <si>
     <t>End</t>
   </si>
@@ -641,6 +652,24 @@
   </si>
   <si>
     <t>רן</t>
+  </si>
+  <si>
+    <t>אומנות מלאכת יד</t>
+  </si>
+  <si>
+    <t>אנגלית</t>
+  </si>
+  <si>
+    <t>יוגה</t>
+  </si>
+  <si>
+    <t>מדעים</t>
+  </si>
+  <si>
+    <t>נגרות</t>
+  </si>
+  <si>
+    <t>תרפיה במוזיקה</t>
   </si>
 </sst>
 </file>
@@ -698,7 +727,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -708,28 +737,17 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -739,7 +757,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -765,10 +783,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1248,6 +1267,7 @@
       <c r="B8" s="3">
         <v>0.39583333333333331</v>
       </c>
+      <c r="D8" s="10"/>
       <c r="G8" s="9"/>
       <c r="H8" t="s">
         <v>20</v>
@@ -1761,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E363FBF9-84D0-4B20-87A9-83BB83FDD08A}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1770,20 +1790,20 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="10" customFormat="1">
+      <c r="A2" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>54</v>
@@ -1791,15 +1811,10 @@
       <c r="C2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>54</v>
@@ -1813,31 +1828,36 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" s="10" customFormat="1">
+    <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" s="10" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="10" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>124</v>
@@ -1848,7 +1868,7 @@
     </row>
     <row r="7" spans="1:17" s="10" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>124</v>
@@ -1859,10 +1879,10 @@
     </row>
     <row r="8" spans="1:17" s="10" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>56</v>
@@ -1870,7 +1890,7 @@
     </row>
     <row r="9" spans="1:17" s="10" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>57</v>
@@ -1881,7 +1901,7 @@
     </row>
     <row r="10" spans="1:17" s="10" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>57</v>
@@ -1892,18 +1912,18 @@
     </row>
     <row r="11" spans="1:17" s="10" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="10" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>53</v>
@@ -1912,47 +1932,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="2"/>
+    <row r="13" spans="1:17" s="10" customFormat="1">
+      <c r="A13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="10"/>
+        <v>123</v>
+      </c>
       <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
       <c r="O14" s="9"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="10" t="s">
-        <v>78</v>
+      <c r="A15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1962,13 +1976,13 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" t="s">
         <v>123</v>
       </c>
       <c r="L16" s="10"/>
@@ -1979,14 +1993,14 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
+      <c r="A17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -1997,24 +2011,24 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>46</v>
@@ -2025,35 +2039,35 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>9</v>
+      <c r="A21" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -2063,11 +2077,11 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>48</v>
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>45</v>
@@ -2081,9 +2095,9 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2093,14 +2107,15 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>45</v>
@@ -2109,51 +2124,50 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" t="s">
         <v>59</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
+        <v>97</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -2163,14 +2177,14 @@
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" t="s">
-        <v>23</v>
+      <c r="A28" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -2181,13 +2195,13 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -2197,14 +2211,14 @@
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="10" t="s">
-        <v>22</v>
+      <c r="A30" t="s">
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -2215,44 +2229,45 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="10" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="P31" s="9"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="O32" s="9"/>
+      <c r="N32" s="10"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="10" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" t="s">
         <v>51</v>
       </c>
       <c r="L33" s="10"/>
@@ -2262,42 +2277,41 @@
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" t="s">
-        <v>39</v>
+      <c r="A34" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="10" t="s">
-        <v>79</v>
+      <c r="A35" t="s">
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
+        <v>54</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
+      <c r="A36" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>66</v>
@@ -2306,135 +2320,141 @@
         <v>123</v>
       </c>
       <c r="L36" s="10"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="10" t="s">
-        <v>44</v>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L37" s="10"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" s="10" customFormat="1">
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" s="10" customFormat="1">
+      <c r="A39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B39" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" t="s">
         <v>63</v>
       </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="10" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>66</v>
       </c>
       <c r="C43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>48</v>
@@ -2445,7 +2465,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>48</v>
@@ -2456,29 +2476,29 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>47</v>
@@ -2489,21 +2509,21 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
         <v>24</v>
@@ -2511,24 +2531,24 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2576,8 +2596,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C59">
-    <sortCondition ref="A22:A59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C59">
+    <sortCondition ref="A23:A59"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2587,15 +2607,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AFCDCB-BA3E-441A-848B-9F8AB33FF68E}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:34">
       <c r="A1" s="12" t="s">
         <v>134</v>
       </c>
@@ -2605,9 +2638,101 @@
       <c r="C1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="12" t="s">
         <v>137</v>
       </c>
@@ -2617,8 +2742,39 @@
       <c r="C2" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="12" t="s">
         <v>138</v>
       </c>
@@ -2628,8 +2784,39 @@
       <c r="C3" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="12" t="s">
         <v>139</v>
       </c>
@@ -2639,8 +2826,39 @@
       <c r="C4" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="12" t="s">
         <v>140</v>
       </c>
@@ -2650,8 +2868,39 @@
       <c r="C5" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="12" t="s">
         <v>141</v>
       </c>
@@ -2661,8 +2910,39 @@
       <c r="C6" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="12" t="s">
         <v>142</v>
       </c>
@@ -2672,8 +2952,39 @@
       <c r="C7" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="12" t="s">
         <v>143</v>
       </c>
@@ -2683,8 +2994,39 @@
       <c r="C8" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="12" t="s">
         <v>124</v>
       </c>
@@ -2694,8 +3036,39 @@
       <c r="C9" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="12" t="s">
         <v>144</v>
       </c>
@@ -2705,8 +3078,39 @@
       <c r="C10" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="12" t="s">
         <v>145</v>
       </c>
@@ -2716,8 +3120,39 @@
       <c r="C11" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="12" t="s">
         <v>146</v>
       </c>
@@ -2727,8 +3162,39 @@
       <c r="C12" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="12" t="s">
         <v>147</v>
       </c>
@@ -2738,8 +3204,39 @@
       <c r="C13" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" s="12" t="s">
         <v>148</v>
       </c>
@@ -2749,19 +3246,81 @@
       <c r="C14" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>7</v>
       </c>
       <c r="C15" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" s="12" t="s">
         <v>150</v>
       </c>
@@ -2771,8 +3330,39 @@
       <c r="C16" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17" s="12" t="s">
         <v>151</v>
       </c>
@@ -2782,8 +3372,39 @@
       <c r="C17" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" s="12" t="s">
         <v>152</v>
       </c>
@@ -2793,8 +3414,39 @@
       <c r="C18" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" s="12" t="s">
         <v>153</v>
       </c>
@@ -2804,8 +3456,39 @@
       <c r="C19" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" s="12" t="s">
         <v>154</v>
       </c>
@@ -2815,8 +3498,39 @@
       <c r="C20" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" s="12" t="s">
         <v>155</v>
       </c>
@@ -2826,19 +3540,81 @@
       <c r="C21" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>6</v>
       </c>
       <c r="C22" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23" s="12" t="s">
         <v>157</v>
       </c>
@@ -2848,8 +3624,39 @@
       <c r="C23" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24" s="12" t="s">
         <v>158</v>
       </c>
@@ -2859,8 +3666,39 @@
       <c r="C24" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25" s="12" t="s">
         <v>159</v>
       </c>
@@ -2870,8 +3708,39 @@
       <c r="C25" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26" s="12" t="s">
         <v>62</v>
       </c>
@@ -2881,8 +3750,39 @@
       <c r="C26" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27" s="12" t="s">
         <v>160</v>
       </c>
@@ -2892,8 +3792,39 @@
       <c r="C27" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28" s="12" t="s">
         <v>161</v>
       </c>
@@ -2903,8 +3834,39 @@
       <c r="C28" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" s="12" t="s">
         <v>162</v>
       </c>
@@ -2914,8 +3876,39 @@
       <c r="C29" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+    </row>
+    <row r="30" spans="1:34">
       <c r="A30" s="12" t="s">
         <v>163</v>
       </c>
@@ -2925,8 +3918,39 @@
       <c r="C30" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+    </row>
+    <row r="31" spans="1:34">
       <c r="A31" s="12" t="s">
         <v>164</v>
       </c>
@@ -2936,8 +3960,39 @@
       <c r="C31" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" s="12" t="s">
         <v>165</v>
       </c>
@@ -2947,8 +4002,39 @@
       <c r="C32" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" s="12" t="s">
         <v>166</v>
       </c>
@@ -2958,8 +4044,39 @@
       <c r="C33" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+    </row>
+    <row r="34" spans="1:34">
       <c r="A34" s="12" t="s">
         <v>167</v>
       </c>
@@ -2969,8 +4086,39 @@
       <c r="C34" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" s="12" t="s">
         <v>168</v>
       </c>
@@ -2980,468 +4128,1739 @@
       <c r="C35" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="14" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>5</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="14" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="12">
         <v>5</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="14" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <v>5</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="14" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="12">
         <v>4</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="14" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="12">
         <v>4</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="14" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="12">
         <v>4</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="14" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="12">
         <v>4</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="14" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="12">
         <v>4</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="14" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="12">
         <v>4</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="14" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="12">
         <v>4</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="14" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="12">
         <v>4</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="14" t="s">
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="12">
         <v>4</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="14" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="12">
         <v>4</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="14" t="s">
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="12">
         <v>4</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="14" t="s">
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="12">
         <v>3</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="14" t="s">
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="12">
         <v>3</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="14" t="s">
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="12">
         <v>3</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="14" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="12">
         <v>3</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="14" t="s">
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13"/>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="12">
         <v>3</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="14" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="12">
         <v>3</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="14" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="13"/>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="13"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="13"/>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="12">
         <v>3</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="14" t="s">
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="13"/>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="13"/>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="12">
         <v>3</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="14" t="s">
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="13"/>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="13"/>
+      <c r="AH57" s="13"/>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="A58" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="12">
         <v>2</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="14" t="s">
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="13"/>
+      <c r="AB58" s="13"/>
+      <c r="AC58" s="13"/>
+      <c r="AD58" s="13"/>
+      <c r="AE58" s="13"/>
+      <c r="AF58" s="13"/>
+      <c r="AG58" s="13"/>
+      <c r="AH58" s="13"/>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="12">
         <v>2</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="14" t="s">
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="13"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="13"/>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>2</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="14" t="s">
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="13"/>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>2</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="14" t="s">
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13"/>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="13"/>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="A62" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>2</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="14" t="s">
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="13"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13"/>
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="13"/>
+    </row>
+    <row r="63" spans="1:34">
+      <c r="A63" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>2</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="14" t="s">
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
+      <c r="AA63" s="13"/>
+      <c r="AB63" s="13"/>
+      <c r="AC63" s="13"/>
+      <c r="AD63" s="13"/>
+      <c r="AE63" s="13"/>
+      <c r="AF63" s="13"/>
+      <c r="AG63" s="13"/>
+      <c r="AH63" s="13"/>
+    </row>
+    <row r="64" spans="1:34">
+      <c r="A64" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>2</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="14" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="13"/>
+      <c r="AC64" s="13"/>
+      <c r="AD64" s="13"/>
+      <c r="AE64" s="13"/>
+      <c r="AF64" s="13"/>
+      <c r="AG64" s="13"/>
+      <c r="AH64" s="13"/>
+    </row>
+    <row r="65" spans="1:34">
+      <c r="A65" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>2</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="14" t="s">
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="13"/>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="13"/>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="13"/>
+      <c r="AE65" s="13"/>
+      <c r="AF65" s="13"/>
+      <c r="AG65" s="13"/>
+      <c r="AH65" s="13"/>
+    </row>
+    <row r="66" spans="1:34">
+      <c r="A66" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="14" t="s">
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="13"/>
+      <c r="AC66" s="13"/>
+      <c r="AD66" s="13"/>
+      <c r="AE66" s="13"/>
+      <c r="AF66" s="13"/>
+      <c r="AG66" s="13"/>
+      <c r="AH66" s="13"/>
+    </row>
+    <row r="67" spans="1:34">
+      <c r="A67" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>1</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="14" t="s">
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="13"/>
+      <c r="Z67" s="13"/>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="13"/>
+      <c r="AC67" s="13"/>
+      <c r="AD67" s="13"/>
+      <c r="AE67" s="13"/>
+      <c r="AF67" s="13"/>
+      <c r="AG67" s="13"/>
+      <c r="AH67" s="13"/>
+    </row>
+    <row r="68" spans="1:34">
+      <c r="A68" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>1</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="14" t="s">
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+      <c r="AA68" s="13"/>
+      <c r="AB68" s="13"/>
+      <c r="AC68" s="13"/>
+      <c r="AD68" s="13"/>
+      <c r="AE68" s="13"/>
+      <c r="AF68" s="13"/>
+      <c r="AG68" s="13"/>
+      <c r="AH68" s="13"/>
+    </row>
+    <row r="69" spans="1:34">
+      <c r="A69" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>1</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="14" t="s">
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+      <c r="AA69" s="13"/>
+      <c r="AB69" s="13"/>
+      <c r="AC69" s="13"/>
+      <c r="AD69" s="13"/>
+      <c r="AE69" s="13"/>
+      <c r="AF69" s="13"/>
+      <c r="AG69" s="13"/>
+      <c r="AH69" s="13"/>
+    </row>
+    <row r="70" spans="1:34">
+      <c r="A70" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>1</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="14" t="s">
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+      <c r="AA70" s="13"/>
+      <c r="AB70" s="13"/>
+      <c r="AC70" s="13"/>
+      <c r="AD70" s="13"/>
+      <c r="AE70" s="13"/>
+      <c r="AF70" s="13"/>
+      <c r="AG70" s="13"/>
+      <c r="AH70" s="13"/>
+    </row>
+    <row r="71" spans="1:34">
+      <c r="A71" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>1</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="14" t="s">
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="13"/>
+      <c r="AB71" s="13"/>
+      <c r="AC71" s="13"/>
+      <c r="AD71" s="13"/>
+      <c r="AE71" s="13"/>
+      <c r="AF71" s="13"/>
+      <c r="AG71" s="13"/>
+      <c r="AH71" s="13"/>
+    </row>
+    <row r="72" spans="1:34">
+      <c r="A72" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>1</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="14" t="s">
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="13"/>
+      <c r="AE72" s="13"/>
+      <c r="AF72" s="13"/>
+      <c r="AG72" s="13"/>
+      <c r="AH72" s="13"/>
+    </row>
+    <row r="73" spans="1:34">
+      <c r="A73" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>1</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="14" t="s">
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+      <c r="AA73" s="13"/>
+      <c r="AB73" s="13"/>
+      <c r="AC73" s="13"/>
+      <c r="AD73" s="13"/>
+      <c r="AE73" s="13"/>
+      <c r="AF73" s="13"/>
+      <c r="AG73" s="13"/>
+      <c r="AH73" s="13"/>
+    </row>
+    <row r="74" spans="1:34">
+      <c r="A74" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>1</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="14" t="s">
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
+      <c r="AC74" s="13"/>
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="13"/>
+      <c r="AF74" s="13"/>
+      <c r="AG74" s="13"/>
+      <c r="AH74" s="13"/>
+    </row>
+    <row r="75" spans="1:34">
+      <c r="A75" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>1</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
+      <c r="AC75" s="13"/>
+      <c r="AD75" s="13"/>
+      <c r="AE75" s="13"/>
+      <c r="AF75" s="13"/>
+      <c r="AG75" s="13"/>
+      <c r="AH75" s="13"/>
+    </row>
+    <row r="76" spans="1:34">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:34">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:34">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:34">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:34">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -3666,7 +6085,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PProject\dbs-shiorim\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdocs-my.sharepoint.com/personal/elade_amdocs_com/Documents/Backup Folders/Documents/GitHub/dbs-shiorim/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24282F29-DAAC-416D-831F-0FF5069DCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{24282F29-DAAC-416D-831F-0FF5069DCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2102C141-DD70-48C9-907E-947FC7DD52A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" t="s">

--- a/public/excel/database.xlsx
+++ b/public/excel/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdocs-my.sharepoint.com/personal/elade_amdocs_com/Documents/Backup Folders/Documents/GitHub/dbs-shiorim/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{24282F29-DAAC-416D-831F-0FF5069DCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2102C141-DD70-48C9-907E-947FC7DD52A3}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{24282F29-DAAC-416D-831F-0FF5069DCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F103CDB9-8B3E-4119-87F3-354D45BF5567}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,6 +806,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1074,7 +1078,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1252,7 +1256,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" t="s">
